--- a/datapkl.xlsx
+++ b/datapkl.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\PKL UHUYY\Data PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C65A9-F6D4-44F9-A0D0-8954B082F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4722A0-1059-4E70-9076-91004AE0409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B391894-605F-4394-A37A-E1A3C4CFC494}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
   <si>
     <t>NAMA KA</t>
   </si>
@@ -611,11 +612,679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A5E38-BF42-4A15-9697-19C12D499D7E}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>821</v>
+      </c>
+      <c r="C2" s="3">
+        <v>798000</v>
+      </c>
+      <c r="D2" s="8">
+        <v>33810</v>
+      </c>
+      <c r="E2" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>825</v>
+      </c>
+      <c r="C3" s="3">
+        <v>798000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>25407</v>
+      </c>
+      <c r="E3" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>696</v>
+      </c>
+      <c r="C4" s="3">
+        <v>750000</v>
+      </c>
+      <c r="D4" s="8">
+        <v>23162</v>
+      </c>
+      <c r="E4" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>696</v>
+      </c>
+      <c r="C5" s="3">
+        <v>668000</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14232</v>
+      </c>
+      <c r="E5" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>907</v>
+      </c>
+      <c r="C6" s="3">
+        <v>838000</v>
+      </c>
+      <c r="D6" s="8">
+        <v>84129</v>
+      </c>
+      <c r="E6" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>907</v>
+      </c>
+      <c r="C7" s="3">
+        <v>780000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>52487</v>
+      </c>
+      <c r="E7" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>780</v>
+      </c>
+      <c r="C8" s="3">
+        <v>589000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>193895</v>
+      </c>
+      <c r="E8" s="3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>695</v>
+      </c>
+      <c r="C9" s="3">
+        <v>430000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>50157</v>
+      </c>
+      <c r="E9" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>311</v>
+      </c>
+      <c r="C10" s="3">
+        <v>268000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>197256</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>825</v>
+      </c>
+      <c r="C11" s="3">
+        <v>501000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>35776</v>
+      </c>
+      <c r="E11" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>667</v>
+      </c>
+      <c r="C12" s="3">
+        <v>471000</v>
+      </c>
+      <c r="D12" s="8">
+        <v>36462</v>
+      </c>
+      <c r="E12" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>880</v>
+      </c>
+      <c r="C13" s="3">
+        <v>573000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>119949</v>
+      </c>
+      <c r="E13" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>725</v>
+      </c>
+      <c r="C14" s="3">
+        <v>456000</v>
+      </c>
+      <c r="D14" s="8">
+        <v>145295</v>
+      </c>
+      <c r="E14" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>725</v>
+      </c>
+      <c r="C15" s="3">
+        <v>524000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43445</v>
+      </c>
+      <c r="E15" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>786</v>
+      </c>
+      <c r="C16" s="3">
+        <v>494000</v>
+      </c>
+      <c r="D16" s="8">
+        <v>51048</v>
+      </c>
+      <c r="E16" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>738</v>
+      </c>
+      <c r="C17" s="3">
+        <v>438000</v>
+      </c>
+      <c r="D17" s="8">
+        <v>72784</v>
+      </c>
+      <c r="E17" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>559</v>
+      </c>
+      <c r="C18" s="3">
+        <v>357000</v>
+      </c>
+      <c r="D18" s="8">
+        <v>71187</v>
+      </c>
+      <c r="E18" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>559</v>
+      </c>
+      <c r="C19" s="3">
+        <v>342000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>85254</v>
+      </c>
+      <c r="E19" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>850</v>
+      </c>
+      <c r="C20" s="3">
+        <v>375000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>116495</v>
+      </c>
+      <c r="E20" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>653</v>
+      </c>
+      <c r="C21" s="3">
+        <v>353000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>74444</v>
+      </c>
+      <c r="E21" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>827</v>
+      </c>
+      <c r="C22" s="3">
+        <v>403000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>76688</v>
+      </c>
+      <c r="E22" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>881</v>
+      </c>
+      <c r="C23" s="3">
+        <v>288000</v>
+      </c>
+      <c r="D23" s="8">
+        <v>156545</v>
+      </c>
+      <c r="E23" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>700</v>
+      </c>
+      <c r="C24" s="3">
+        <v>84000</v>
+      </c>
+      <c r="D24" s="8">
+        <v>281714</v>
+      </c>
+      <c r="E24" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>690</v>
+      </c>
+      <c r="C25" s="3">
+        <v>290000</v>
+      </c>
+      <c r="D25" s="8">
+        <v>60924</v>
+      </c>
+      <c r="E25" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>620</v>
+      </c>
+      <c r="C26" s="3">
+        <v>94000</v>
+      </c>
+      <c r="D26" s="8">
+        <v>147588</v>
+      </c>
+      <c r="E26" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3">
+        <v>110</v>
+      </c>
+      <c r="C27" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="8">
+        <v>326118</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
+        <v>696</v>
+      </c>
+      <c r="C28" s="3">
+        <v>750000</v>
+      </c>
+      <c r="D28" s="8">
+        <v>472</v>
+      </c>
+      <c r="E28" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3">
+        <v>907</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1607</v>
+      </c>
+      <c r="E29" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
+        <v>907</v>
+      </c>
+      <c r="C30" s="3">
+        <v>665000</v>
+      </c>
+      <c r="D30" s="8">
+        <v>13013</v>
+      </c>
+      <c r="E30" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>907</v>
+      </c>
+      <c r="C31" s="3">
+        <v>665000</v>
+      </c>
+      <c r="D31" s="8">
+        <v>652</v>
+      </c>
+      <c r="E31" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>725</v>
+      </c>
+      <c r="C32" s="3">
+        <v>456000</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30629</v>
+      </c>
+      <c r="E32" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
+        <v>690</v>
+      </c>
+      <c r="C33" s="3">
+        <v>290000</v>
+      </c>
+      <c r="D33" s="8">
+        <v>18992</v>
+      </c>
+      <c r="E33" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3">
+        <v>907</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="D34" s="8">
+        <v>858</v>
+      </c>
+      <c r="E34" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3">
+        <v>821</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="D35" s="8">
+        <v>250</v>
+      </c>
+      <c r="E35" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3">
+        <v>825</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="D36" s="8">
+        <v>331</v>
+      </c>
+      <c r="E36" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3">
+        <v>696</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="D37" s="8">
+        <v>917</v>
+      </c>
+      <c r="E37" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3">
+        <v>311</v>
+      </c>
+      <c r="C38" s="3">
+        <v>305000</v>
+      </c>
+      <c r="D38" s="8">
+        <v>17196</v>
+      </c>
+      <c r="E38" s="3">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9432CC43-1063-4CF9-BE0F-09653C98B8AB}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37D18F-1CD5-48FD-A2CA-427ECD097931}">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -2015,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA4955F-44B3-4ECA-8C6D-0E1DE4B84CA1}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -2555,7 +3224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06F8435-EE39-4900-A189-142B940A5BE2}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -3203,7 +3872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8024BA5E-4663-4603-AF36-9B2BC6A23FB4}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -3847,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A14F7BF-A76F-4DB0-ACE3-221869C16A2C}">
   <dimension ref="A1:E31"/>
   <sheetViews>

--- a/datapkl.xlsx
+++ b/datapkl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\PKL UHUYY\Data PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4722A0-1059-4E70-9076-91004AE0409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0EC3A-D6E0-402D-980B-0A7FB0FE2C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B391894-605F-4394-A37A-E1A3C4CFC494}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="48">
   <si>
     <t>NAMA KA</t>
   </si>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A5E38-BF42-4A15-9697-19C12D499D7E}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,33 +1072,33 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
-        <v>110</v>
+        <v>696</v>
       </c>
       <c r="C27" s="3">
-        <v>40000</v>
+        <v>750000</v>
       </c>
       <c r="D27" s="8">
-        <v>326118</v>
+        <v>472</v>
       </c>
       <c r="E27" s="3">
-        <v>1810</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
-        <v>696</v>
+        <v>907</v>
       </c>
       <c r="C28" s="3">
-        <v>750000</v>
+        <v>1557000</v>
       </c>
       <c r="D28" s="8">
-        <v>472</v>
+        <v>1607</v>
       </c>
       <c r="E28" s="3">
         <v>362</v>
@@ -1106,16 +1106,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>907</v>
       </c>
       <c r="C29" s="3">
-        <v>1557000</v>
+        <v>665000</v>
       </c>
       <c r="D29" s="8">
-        <v>1607</v>
+        <v>13013</v>
       </c>
       <c r="E29" s="3">
         <v>362</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3">
         <v>907</v>
@@ -1132,7 +1132,7 @@
         <v>665000</v>
       </c>
       <c r="D30" s="8">
-        <v>13013</v>
+        <v>652</v>
       </c>
       <c r="E30" s="3">
         <v>362</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>907</v>
+        <v>725</v>
       </c>
       <c r="C31" s="3">
-        <v>665000</v>
+        <v>456000</v>
       </c>
       <c r="D31" s="8">
-        <v>652</v>
+        <v>30629</v>
       </c>
       <c r="E31" s="3">
         <v>362</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="C32" s="3">
-        <v>456000</v>
+        <v>290000</v>
       </c>
       <c r="D32" s="8">
-        <v>30629</v>
+        <v>18992</v>
       </c>
       <c r="E32" s="3">
         <v>362</v>
@@ -1174,16 +1174,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
-        <v>690</v>
+        <v>907</v>
       </c>
       <c r="C33" s="3">
-        <v>290000</v>
+        <v>1250000</v>
       </c>
       <c r="D33" s="8">
-        <v>18992</v>
+        <v>858</v>
       </c>
       <c r="E33" s="3">
         <v>362</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3">
-        <v>907</v>
+        <v>821</v>
       </c>
       <c r="C34" s="3">
-        <v>1250000</v>
+        <v>2250000</v>
       </c>
       <c r="D34" s="8">
-        <v>858</v>
+        <v>250</v>
       </c>
       <c r="E34" s="3">
         <v>362</v>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C35" s="3">
         <v>2250000</v>
       </c>
       <c r="D35" s="8">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="E35" s="3">
         <v>362</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>825</v>
+        <v>696</v>
       </c>
       <c r="C36" s="3">
-        <v>2250000</v>
+        <v>1250000</v>
       </c>
       <c r="D36" s="8">
-        <v>331</v>
+        <v>917</v>
       </c>
       <c r="E36" s="3">
         <v>362</v>
@@ -1242,35 +1242,18 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3">
-        <v>696</v>
+        <v>311</v>
       </c>
       <c r="C37" s="3">
-        <v>1250000</v>
+        <v>305000</v>
       </c>
       <c r="D37" s="8">
-        <v>917</v>
+        <v>17196</v>
       </c>
       <c r="E37" s="3">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="3">
-        <v>311</v>
-      </c>
-      <c r="C38" s="3">
-        <v>305000</v>
-      </c>
-      <c r="D38" s="8">
-        <v>17196</v>
-      </c>
-      <c r="E38" s="3">
         <v>362</v>
       </c>
     </row>
@@ -1283,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9432CC43-1063-4CF9-BE0F-09653C98B8AB}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:E40"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datapkl.xlsx
+++ b/datapkl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\PKL UHUYY\Data PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0EC3A-D6E0-402D-980B-0A7FB0FE2C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA22AEE-85C3-4FE2-9A47-AE800C23FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B391894-605F-4394-A37A-E1A3C4CFC494}"/>
   </bookViews>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A5E38-BF42-4A15-9697-19C12D499D7E}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,11 +624,11 @@
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +655,8 @@
       <c r="C2" s="3">
         <v>798000</v>
       </c>
-      <c r="D2" s="8">
-        <v>33810</v>
+      <c r="D2" s="4">
+        <v>16268</v>
       </c>
       <c r="E2" s="3">
         <v>362</v>
@@ -672,8 +672,8 @@
       <c r="C3" s="3">
         <v>798000</v>
       </c>
-      <c r="D3" s="8">
-        <v>25407</v>
+      <c r="D3" s="4">
+        <v>12058</v>
       </c>
       <c r="E3" s="3">
         <v>362</v>
@@ -689,8 +689,8 @@
       <c r="C4" s="3">
         <v>750000</v>
       </c>
-      <c r="D4" s="8">
-        <v>23162</v>
+      <c r="D4" s="4">
+        <v>11683</v>
       </c>
       <c r="E4" s="3">
         <v>362</v>
@@ -706,8 +706,8 @@
       <c r="C5" s="3">
         <v>668000</v>
       </c>
-      <c r="D5" s="8">
-        <v>14232</v>
+      <c r="D5" s="4">
+        <v>5862</v>
       </c>
       <c r="E5" s="3">
         <v>362</v>
@@ -723,8 +723,8 @@
       <c r="C6" s="3">
         <v>838000</v>
       </c>
-      <c r="D6" s="8">
-        <v>84129</v>
+      <c r="D6" s="4">
+        <v>36315</v>
       </c>
       <c r="E6" s="3">
         <v>362</v>
@@ -740,8 +740,8 @@
       <c r="C7" s="3">
         <v>780000</v>
       </c>
-      <c r="D7" s="8">
-        <v>52487</v>
+      <c r="D7" s="4">
+        <v>23762</v>
       </c>
       <c r="E7" s="3">
         <v>362</v>
@@ -757,8 +757,8 @@
       <c r="C8" s="3">
         <v>589000</v>
       </c>
-      <c r="D8" s="8">
-        <v>193895</v>
+      <c r="D8" s="4">
+        <v>85099</v>
       </c>
       <c r="E8" s="3">
         <v>724</v>
@@ -774,8 +774,8 @@
       <c r="C9" s="3">
         <v>430000</v>
       </c>
-      <c r="D9" s="8">
-        <v>50157</v>
+      <c r="D9" s="4">
+        <v>25783</v>
       </c>
       <c r="E9" s="3">
         <v>362</v>
@@ -791,8 +791,8 @@
       <c r="C10" s="3">
         <v>268000</v>
       </c>
-      <c r="D10" s="8">
-        <v>197256</v>
+      <c r="D10" s="4">
+        <v>95410</v>
       </c>
       <c r="E10" s="3">
         <v>1086</v>
@@ -808,8 +808,8 @@
       <c r="C11" s="3">
         <v>501000</v>
       </c>
-      <c r="D11" s="8">
-        <v>35776</v>
+      <c r="D11" s="4">
+        <v>14966</v>
       </c>
       <c r="E11" s="3">
         <v>362</v>
@@ -825,8 +825,8 @@
       <c r="C12" s="3">
         <v>471000</v>
       </c>
-      <c r="D12" s="8">
-        <v>36462</v>
+      <c r="D12" s="4">
+        <v>16209</v>
       </c>
       <c r="E12" s="3">
         <v>362</v>
@@ -842,8 +842,8 @@
       <c r="C13" s="3">
         <v>573000</v>
       </c>
-      <c r="D13" s="8">
-        <v>119949</v>
+      <c r="D13" s="4">
+        <v>58931</v>
       </c>
       <c r="E13" s="3">
         <v>362</v>
@@ -859,8 +859,8 @@
       <c r="C14" s="3">
         <v>456000</v>
       </c>
-      <c r="D14" s="8">
-        <v>145295</v>
+      <c r="D14" s="4">
+        <v>71342</v>
       </c>
       <c r="E14" s="3">
         <v>362</v>
@@ -876,8 +876,8 @@
       <c r="C15" s="3">
         <v>524000</v>
       </c>
-      <c r="D15" s="8">
-        <v>43445</v>
+      <c r="D15" s="4">
+        <v>21643</v>
       </c>
       <c r="E15" s="3">
         <v>362</v>
@@ -893,8 +893,8 @@
       <c r="C16" s="3">
         <v>494000</v>
       </c>
-      <c r="D16" s="8">
-        <v>51048</v>
+      <c r="D16" s="4">
+        <v>17495</v>
       </c>
       <c r="E16" s="3">
         <v>362</v>
@@ -910,8 +910,8 @@
       <c r="C17" s="3">
         <v>438000</v>
       </c>
-      <c r="D17" s="8">
-        <v>72784</v>
+      <c r="D17" s="4">
+        <v>33485</v>
       </c>
       <c r="E17" s="3">
         <v>362</v>
@@ -927,8 +927,8 @@
       <c r="C18" s="3">
         <v>357000</v>
       </c>
-      <c r="D18" s="8">
-        <v>71187</v>
+      <c r="D18" s="4">
+        <v>29607</v>
       </c>
       <c r="E18" s="3">
         <v>362</v>
@@ -944,8 +944,8 @@
       <c r="C19" s="3">
         <v>342000</v>
       </c>
-      <c r="D19" s="8">
-        <v>85254</v>
+      <c r="D19" s="4">
+        <v>38696</v>
       </c>
       <c r="E19" s="3">
         <v>362</v>
@@ -961,8 +961,8 @@
       <c r="C20" s="3">
         <v>375000</v>
       </c>
-      <c r="D20" s="8">
-        <v>116495</v>
+      <c r="D20" s="4">
+        <v>52227</v>
       </c>
       <c r="E20" s="3">
         <v>362</v>
@@ -978,8 +978,8 @@
       <c r="C21" s="3">
         <v>353000</v>
       </c>
-      <c r="D21" s="8">
-        <v>74444</v>
+      <c r="D21" s="4">
+        <v>36873</v>
       </c>
       <c r="E21" s="3">
         <v>362</v>
@@ -995,8 +995,8 @@
       <c r="C22" s="3">
         <v>403000</v>
       </c>
-      <c r="D22" s="8">
-        <v>76688</v>
+      <c r="D22" s="4">
+        <v>37292</v>
       </c>
       <c r="E22" s="3">
         <v>362</v>
@@ -1012,8 +1012,8 @@
       <c r="C23" s="3">
         <v>288000</v>
       </c>
-      <c r="D23" s="8">
-        <v>156545</v>
+      <c r="D23" s="4">
+        <v>70891</v>
       </c>
       <c r="E23" s="3">
         <v>362</v>
@@ -1029,8 +1029,8 @@
       <c r="C24" s="3">
         <v>84000</v>
       </c>
-      <c r="D24" s="8">
-        <v>281714</v>
+      <c r="D24" s="4">
+        <v>129471</v>
       </c>
       <c r="E24" s="3">
         <v>362</v>
@@ -1046,8 +1046,8 @@
       <c r="C25" s="3">
         <v>290000</v>
       </c>
-      <c r="D25" s="8">
-        <v>60924</v>
+      <c r="D25" s="4">
+        <v>27540</v>
       </c>
       <c r="E25" s="3">
         <v>362</v>
@@ -1063,8 +1063,8 @@
       <c r="C26" s="3">
         <v>94000</v>
       </c>
-      <c r="D26" s="8">
-        <v>147588</v>
+      <c r="D26" s="4">
+        <v>72036</v>
       </c>
       <c r="E26" s="3">
         <v>362</v>
@@ -1080,8 +1080,8 @@
       <c r="C27" s="3">
         <v>750000</v>
       </c>
-      <c r="D27" s="8">
-        <v>472</v>
+      <c r="D27" s="4">
+        <v>242</v>
       </c>
       <c r="E27" s="3">
         <v>362</v>
@@ -1097,8 +1097,8 @@
       <c r="C28" s="3">
         <v>1557000</v>
       </c>
-      <c r="D28" s="8">
-        <v>1607</v>
+      <c r="D28" s="4">
+        <v>752</v>
       </c>
       <c r="E28" s="3">
         <v>362</v>
@@ -1114,8 +1114,8 @@
       <c r="C29" s="3">
         <v>665000</v>
       </c>
-      <c r="D29" s="8">
-        <v>13013</v>
+      <c r="D29" s="4">
+        <v>6897</v>
       </c>
       <c r="E29" s="3">
         <v>362</v>
@@ -1131,8 +1131,8 @@
       <c r="C30" s="3">
         <v>665000</v>
       </c>
-      <c r="D30" s="8">
-        <v>652</v>
+      <c r="D30" s="4">
+        <v>391</v>
       </c>
       <c r="E30" s="3">
         <v>362</v>
@@ -1148,8 +1148,8 @@
       <c r="C31" s="3">
         <v>456000</v>
       </c>
-      <c r="D31" s="8">
-        <v>30629</v>
+      <c r="D31" s="4">
+        <v>15087</v>
       </c>
       <c r="E31" s="3">
         <v>362</v>
@@ -1165,8 +1165,8 @@
       <c r="C32" s="3">
         <v>290000</v>
       </c>
-      <c r="D32" s="8">
-        <v>18992</v>
+      <c r="D32" s="4">
+        <v>8834</v>
       </c>
       <c r="E32" s="3">
         <v>362</v>
@@ -1182,8 +1182,8 @@
       <c r="C33" s="3">
         <v>1250000</v>
       </c>
-      <c r="D33" s="8">
-        <v>858</v>
+      <c r="D33" s="4">
+        <v>457</v>
       </c>
       <c r="E33" s="3">
         <v>362</v>
@@ -1199,8 +1199,8 @@
       <c r="C34" s="3">
         <v>2250000</v>
       </c>
-      <c r="D34" s="8">
-        <v>250</v>
+      <c r="D34" s="4">
+        <v>135</v>
       </c>
       <c r="E34" s="3">
         <v>362</v>
@@ -1216,8 +1216,8 @@
       <c r="C35" s="3">
         <v>2250000</v>
       </c>
-      <c r="D35" s="8">
-        <v>331</v>
+      <c r="D35" s="4">
+        <v>190</v>
       </c>
       <c r="E35" s="3">
         <v>362</v>
@@ -1233,8 +1233,8 @@
       <c r="C36" s="3">
         <v>1250000</v>
       </c>
-      <c r="D36" s="8">
-        <v>917</v>
+      <c r="D36" s="4">
+        <v>482</v>
       </c>
       <c r="E36" s="3">
         <v>362</v>
@@ -1250,8 +1250,8 @@
       <c r="C37" s="3">
         <v>305000</v>
       </c>
-      <c r="D37" s="8">
-        <v>17196</v>
+      <c r="D37" s="4">
+        <v>5350</v>
       </c>
       <c r="E37" s="3">
         <v>362</v>
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37D18F-1CD5-48FD-A2CA-427ECD097931}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
